--- a/DB_Table_Structure.xlsx
+++ b/DB_Table_Structure.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krystinmckee/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42952D-3676-9044-88E0-EC9FD698F15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8C2B5A-DCA4-634A-BB02-BB2F43CF936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20880" windowHeight="19560" xr2:uid="{699E76BF-61A8-2C42-9DAD-725E9FC22FE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>YEAR</t>
   </si>
@@ -76,6 +76,9 @@
     <t>DEP_DELAY</t>
   </si>
   <si>
+    <t>DEP_DEL15</t>
+  </si>
+  <si>
     <t>DEP_DELAY_GROUP</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>ARR_DELAY</t>
   </si>
   <si>
+    <t>ARR_DEL15</t>
+  </si>
+  <si>
     <t>ARR_DELAY_GROUP</t>
   </si>
   <si>
@@ -151,9 +157,6 @@
     <t>AIRLINE</t>
   </si>
   <si>
-    <t>FLIGHTS</t>
-  </si>
-  <si>
     <t>CITY_NAME</t>
   </si>
   <si>
@@ -175,23 +178,27 @@
     <t>CANCELATION_REASON</t>
   </si>
   <si>
-    <t>CANCELATION</t>
+    <t>FLIGHT_SCHED</t>
+  </si>
+  <si>
+    <t>FLIGHT_ID</t>
+  </si>
+  <si>
+    <t>DELAYS_CANCELS</t>
+  </si>
+  <si>
+    <t>FLIGHT_ACTUALS</t>
+  </si>
+  <si>
+    <t>CANCELLATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -247,13 +254,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,319 +572,468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD2479B-106C-734F-9FB3-9FD8BBBD3A44}">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F8B8AA-A72E-FE43-848F-CF7F6D91A12E}">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB_Table_Structure.xlsx
+++ b/DB_Table_Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krystinmckee/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8C2B5A-DCA4-634A-BB02-BB2F43CF936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A0F3E9-FCBD-8045-9601-DA33790B8DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20880" windowHeight="19560" xr2:uid="{699E76BF-61A8-2C42-9DAD-725E9FC22FE9}"/>
   </bookViews>
@@ -32,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>QUARTER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>MONTH</t>
   </si>
@@ -58,9 +52,6 @@
     <t>MKT_CARRIER_FL_NUM</t>
   </si>
   <si>
-    <t>TAIL_NUM</t>
-  </si>
-  <si>
     <t>ORIGIN</t>
   </si>
   <si>
@@ -88,12 +79,6 @@
     <t>TAXI_OUT</t>
   </si>
   <si>
-    <t>WHEELS_OFF</t>
-  </si>
-  <si>
-    <t>WHEELS_ON</t>
-  </si>
-  <si>
     <t>TAXI_IN</t>
   </si>
   <si>
@@ -155,12 +140,6 @@
   </si>
   <si>
     <t>AIRLINE</t>
-  </si>
-  <si>
-    <t>CITY_NAME</t>
-  </si>
-  <si>
-    <t>STATE_ABR</t>
   </si>
   <si>
     <t>STATE_NM</t>
@@ -576,7 +555,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,40 +566,40 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -629,104 +608,100 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -735,7 +710,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -744,7 +719,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -753,7 +728,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -761,17 +736,15 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>32</v>
+      <c r="A19" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -780,7 +753,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -788,15 +761,17 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
+      <c r="A22" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -805,7 +780,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -814,7 +789,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -832,7 +807,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -840,17 +815,15 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>19</v>
+      <c r="A28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -859,7 +832,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -868,7 +841,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -877,7 +850,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -885,15 +858,17 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>50</v>
+      <c r="A33" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -902,7 +877,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -911,7 +886,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -920,7 +895,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -929,7 +904,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -938,7 +913,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -947,7 +922,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -956,7 +931,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -965,7 +940,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -974,7 +949,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -983,7 +958,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -991,48 +966,31 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
   </sheetData>
